--- a/pidis/expdata/10012.xlsx
+++ b/pidis/expdata/10012.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23280" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>E</t>
   </si>
@@ -57,12 +57,18 @@
   </si>
   <si>
     <t>JLabHA(E97103)</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -115,6 +121,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,21 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +434,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3.4658000000000002</v>
       </c>
@@ -454,8 +466,11 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4.5983000000000001</v>
       </c>
@@ -483,8 +498,11 @@
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4.5983000000000001</v>
       </c>
@@ -512,8 +530,11 @@
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5.7268999999999997</v>
       </c>
@@ -541,8 +562,11 @@
       <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5.7268999999999997</v>
       </c>
@@ -569,6 +593,9 @@
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/pidis/expdata/10012.xlsx
+++ b/pidis/expdata/10012.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>E</t>
   </si>
@@ -63,13 +63,19 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>Apa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -82,6 +88,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -112,6 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -406,7 +418,7 @@
     <col min="10" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +449,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3.4658000000000002</v>
       </c>
@@ -469,8 +484,11 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4.5983000000000001</v>
       </c>
@@ -501,8 +519,11 @@
       <c r="J3" t="s">
         <v>11</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4.5983000000000001</v>
       </c>
@@ -533,8 +554,11 @@
       <c r="J4" t="s">
         <v>11</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5.7268999999999997</v>
       </c>
@@ -565,8 +589,11 @@
       <c r="J5" t="s">
         <v>11</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5.7268999999999997</v>
       </c>
@@ -596,11 +623,14 @@
       </c>
       <c r="J6" t="s">
         <v>11</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/pidis/expdata/10012.xlsx
+++ b/pidis/expdata/10012.xlsx
@@ -44,9 +44,6 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>Apar</t>
-  </si>
-  <si>
     <t>Apar(stat)_u</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Apa</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -435,22 +435,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -479,13 +479,13 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -514,13 +514,13 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -549,13 +549,13 @@
         <v>2.9E-4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -584,13 +584,13 @@
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -619,13 +619,13 @@
         <v>2.7999999999999998E-4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
